--- a/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6B.xlsx
+++ b/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6B.xlsx
@@ -232,12 +232,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -259,8 +259,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,66 +306,66 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>19090127</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>19090046</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="G3" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -374,56 +374,56 @@
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>19090113</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -432,27 +432,27 @@
       <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -461,85 +461,85 @@
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>19090059</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>26.4</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>19090080</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -548,62 +548,62 @@
       <c r="C10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>19090109</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>19090020</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -625,37 +625,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>19090058</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="G13" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -664,27 +664,27 @@
       <c r="C14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -693,27 +693,27 @@
       <c r="C15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -722,27 +722,27 @@
       <c r="C16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -751,120 +751,120 @@
       <c r="C17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>19090045</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
+      <c r="G18" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>19090085</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="G19" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>19090039</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="G20" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="2" t="n">
         <v>19090101</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -886,72 +886,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>19090036</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="G22" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>19090008</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
+      <c r="G23" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="2" t="n">
         <v>19090067</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -983,56 +983,56 @@
       <c r="C25" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="n">
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="I25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>19090096</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="G26" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H26" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -1041,114 +1041,114 @@
       <c r="C27" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="D27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="n">
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="I27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>19090145</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="G28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>19090009</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="G29" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>19090074</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="G30" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H30" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -1157,22 +1157,22 @@
       <c r="C31" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="D31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="n">
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6B.xlsx
+++ b/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6B.xlsx
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,6 +176,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -223,7 +230,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,8 +243,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -249,6 +260,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -259,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="6:6 7:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,14 +435,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="4" t="n">
         <v>19090076</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="n">
@@ -422,14 +493,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="4" t="n">
         <v>19090015</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="n">
@@ -451,14 +522,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="4" t="n">
         <v>19090117</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="n">
@@ -538,14 +609,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="4" t="n">
         <v>19090102</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3" t="n">
@@ -654,14 +725,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="4" t="n">
         <v>19090120</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="3" t="n">
@@ -683,14 +754,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="4" t="n">
         <v>19090027</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="3" t="n">
@@ -712,14 +783,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="4" t="n">
         <v>19090037</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3" t="n">
@@ -741,14 +812,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="4" t="n">
         <v>19090079</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="3" t="n">
@@ -973,14 +1044,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="4" t="n">
         <v>19090137</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="3" t="n">
@@ -1031,14 +1102,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="4" t="n">
         <v>18090073</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="3" t="n">
@@ -1147,14 +1218,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="4" t="n">
         <v>18090035</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="3" t="n">
